--- a/inst/extdata/GH-ZA-Allocation-sample-2019.xlsx
+++ b/inst/extdata/GH-ZA-Allocation-sample-2019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/github/IEATools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5359604A-8DD5-1A4A-A3CE-A0909D57A19D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F099DD-EC2D-764D-8002-EF80B965CD58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20460" yWindow="460" windowWidth="25520" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7438" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7439" uniqueCount="120">
   <si>
     <t>Country</t>
   </si>
@@ -281,9 +281,6 @@
   </si>
   <si>
     <t>MTH.200.C</t>
-  </si>
-  <si>
-    <t>Industrial furnaces	MTH.200.C</t>
   </si>
   <si>
     <t>Wood stoves</t>
@@ -782,8 +779,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F685" workbookViewId="0">
-      <selection activeCell="P706" sqref="P706"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -796,7 +794,7 @@
     <col min="6" max="6" width="23.6640625" customWidth="1"/>
     <col min="7" max="7" width="4.6640625" customWidth="1"/>
     <col min="8" max="8" width="37.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.5" customWidth="1"/>
     <col min="11" max="11" width="41.6640625" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" customWidth="1"/>
@@ -2183,7 +2181,10 @@
         <v>38</v>
       </c>
       <c r="I34" t="s">
-        <v>87</v>
+        <v>79</v>
+      </c>
+      <c r="J34" t="s">
+        <v>86</v>
       </c>
       <c r="K34" t="s">
         <v>37</v>
@@ -2781,7 +2782,7 @@
         <v>41</v>
       </c>
       <c r="I49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s">
         <v>86</v>
@@ -3203,7 +3204,7 @@
         <v>43</v>
       </c>
       <c r="I59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s">
         <v>84</v>
@@ -3404,7 +3405,7 @@
         <v>39</v>
       </c>
       <c r="I64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J64" t="s">
         <v>84</v>
@@ -3449,7 +3450,7 @@
         <v>39</v>
       </c>
       <c r="I65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J65" t="s">
         <v>84</v>
@@ -3615,7 +3616,7 @@
         <v>39</v>
       </c>
       <c r="I69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J69" t="s">
         <v>84</v>
@@ -3812,7 +3813,7 @@
         <v>40</v>
       </c>
       <c r="I74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J74" t="s">
         <v>84</v>
@@ -4011,7 +4012,7 @@
         <v>39</v>
       </c>
       <c r="I79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J79" t="s">
         <v>84</v>
@@ -4208,7 +4209,7 @@
         <v>40</v>
       </c>
       <c r="I84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J84" t="s">
         <v>84</v>
@@ -4407,10 +4408,10 @@
         <v>36</v>
       </c>
       <c r="I89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J89" t="s">
         <v>94</v>
-      </c>
-      <c r="J89" t="s">
-        <v>95</v>
       </c>
       <c r="K89" t="s">
         <v>48</v>
@@ -4608,10 +4609,10 @@
         <v>38</v>
       </c>
       <c r="I94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K94" t="s">
         <v>48</v>
@@ -4809,10 +4810,10 @@
         <v>41</v>
       </c>
       <c r="I99" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J99" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K99" t="s">
         <v>48</v>
@@ -5010,10 +5011,10 @@
         <v>49</v>
       </c>
       <c r="I104" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J104" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K104" t="s">
         <v>48</v>
@@ -5211,10 +5212,10 @@
         <v>29</v>
       </c>
       <c r="I109" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J109" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K109" t="s">
         <v>48</v>
@@ -5301,7 +5302,7 @@
         <v>29</v>
       </c>
       <c r="I111" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J111" t="s">
         <v>84</v>
@@ -5346,7 +5347,7 @@
         <v>29</v>
       </c>
       <c r="I112" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J112" t="s">
         <v>86</v>
@@ -5355,7 +5356,7 @@
         <v>48</v>
       </c>
       <c r="L112" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M112" s="4"/>
       <c r="N112" s="9">
@@ -5473,7 +5474,7 @@
         <v>36</v>
       </c>
       <c r="I115" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J115" t="s">
         <v>86</v>
@@ -5863,10 +5864,10 @@
         <v>41</v>
       </c>
       <c r="I125" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J125" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K125" t="s">
         <v>50</v>
@@ -6263,7 +6264,7 @@
         <v>39</v>
       </c>
       <c r="I135" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J135" t="s">
         <v>84</v>
@@ -6308,7 +6309,7 @@
         <v>39</v>
       </c>
       <c r="I136" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J136" t="s">
         <v>84</v>
@@ -6470,10 +6471,10 @@
         <v>41</v>
       </c>
       <c r="I140" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J140" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K140" t="s">
         <v>51</v>
@@ -6708,7 +6709,7 @@
         <v>29</v>
       </c>
       <c r="I146" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J146" t="s">
         <v>86</v>
@@ -6868,7 +6869,7 @@
         <v>43</v>
       </c>
       <c r="I150" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J150" t="s">
         <v>84</v>
@@ -7680,7 +7681,7 @@
         <v>57</v>
       </c>
       <c r="I170" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J170" t="s">
         <v>82</v>
@@ -7723,10 +7724,10 @@
         <v>57</v>
       </c>
       <c r="I171" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J171" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K171" t="s">
         <v>23</v>
@@ -7883,7 +7884,7 @@
         <v>22</v>
       </c>
       <c r="I175" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J175" t="s">
         <v>80</v>
@@ -8078,7 +8079,7 @@
         <v>40</v>
       </c>
       <c r="I180" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J180" t="s">
         <v>80</v>
@@ -9067,7 +9068,7 @@
         <v>57</v>
       </c>
       <c r="I205" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J205" t="s">
         <v>82</v>
@@ -9262,7 +9263,7 @@
         <v>36</v>
       </c>
       <c r="I210" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J210" t="s">
         <v>82</v>
@@ -9457,7 +9458,7 @@
         <v>43</v>
       </c>
       <c r="I215" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J215" t="s">
         <v>84</v>
@@ -9652,7 +9653,7 @@
         <v>38</v>
       </c>
       <c r="I220" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J220" t="s">
         <v>82</v>
@@ -9847,7 +9848,7 @@
         <v>39</v>
       </c>
       <c r="I225" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J225" t="s">
         <v>84</v>
@@ -10042,7 +10043,7 @@
         <v>40</v>
       </c>
       <c r="I230" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J230" t="s">
         <v>84</v>
@@ -10241,7 +10242,7 @@
         <v>29</v>
       </c>
       <c r="I235" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J235" t="s">
         <v>84</v>
@@ -10253,7 +10254,9 @@
         <v>26</v>
       </c>
       <c r="M235" s="4"/>
-      <c r="N235" s="8"/>
+      <c r="N235" s="8">
+        <v>1</v>
+      </c>
       <c r="O235" s="8">
         <v>1</v>
       </c>
@@ -10436,7 +10439,7 @@
         <v>36</v>
       </c>
       <c r="I240" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J240" t="s">
         <v>86</v>
@@ -10631,7 +10634,7 @@
         <v>43</v>
       </c>
       <c r="I245" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J245" t="s">
         <v>84</v>
@@ -10826,7 +10829,7 @@
         <v>38</v>
       </c>
       <c r="I250" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J250" t="s">
         <v>82</v>
@@ -11021,7 +11024,7 @@
         <v>39</v>
       </c>
       <c r="I255" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J255" t="s">
         <v>84</v>
@@ -12217,7 +12220,7 @@
         <v>57</v>
       </c>
       <c r="I285" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J285" t="s">
         <v>86</v>
@@ -12634,7 +12637,9 @@
       <c r="N295" s="8">
         <v>1</v>
       </c>
-      <c r="O295" s="8"/>
+      <c r="O295" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
@@ -13242,7 +13247,7 @@
         <v>57</v>
       </c>
       <c r="I310" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J310" t="s">
         <v>86</v>
@@ -13439,7 +13444,7 @@
         <v>66</v>
       </c>
       <c r="I315" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J315" t="s">
         <v>86</v>
@@ -14040,7 +14045,7 @@
         <v>57</v>
       </c>
       <c r="I330" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J330" t="s">
         <v>80</v>
@@ -14824,7 +14829,7 @@
         <v>57</v>
       </c>
       <c r="I350" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J350" t="s">
         <v>80</v>
@@ -15216,7 +15221,7 @@
         <v>57</v>
       </c>
       <c r="I360" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J360" t="s">
         <v>82</v>
@@ -15618,7 +15623,7 @@
         <v>57</v>
       </c>
       <c r="I370" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J370" t="s">
         <v>82</v>
@@ -16010,7 +16015,7 @@
         <v>57</v>
       </c>
       <c r="I380" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J380" t="s">
         <v>86</v>
@@ -16416,7 +16421,7 @@
         <v>57</v>
       </c>
       <c r="I390" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J390" t="s">
         <v>86</v>
@@ -16822,7 +16827,7 @@
         <v>57</v>
       </c>
       <c r="I400" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J400" t="s">
         <v>82</v>
@@ -17220,7 +17225,7 @@
         <v>57</v>
       </c>
       <c r="I410" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J410" t="s">
         <v>86</v>
@@ -18008,7 +18013,7 @@
         <v>57</v>
       </c>
       <c r="I430" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J430" t="s">
         <v>82</v>
@@ -18203,7 +18208,7 @@
         <v>38</v>
       </c>
       <c r="I435" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J435" t="s">
         <v>82</v>
@@ -18398,7 +18403,7 @@
         <v>39</v>
       </c>
       <c r="I440" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J440" t="s">
         <v>84</v>
@@ -18993,7 +18998,7 @@
         <v>41</v>
       </c>
       <c r="I455" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J455" t="s">
         <v>86</v>
@@ -19405,7 +19410,7 @@
         <v>74</v>
       </c>
       <c r="I465" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J465" t="s">
         <v>84</v>
@@ -19606,7 +19611,7 @@
         <v>43</v>
       </c>
       <c r="I470" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J470" t="s">
         <v>84</v>
@@ -19651,7 +19656,7 @@
         <v>43</v>
       </c>
       <c r="I471" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J471" t="s">
         <v>84</v>
@@ -19817,7 +19822,7 @@
         <v>39</v>
       </c>
       <c r="I475" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J475" t="s">
         <v>84</v>
@@ -19862,7 +19867,7 @@
         <v>39</v>
       </c>
       <c r="I476" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J476" t="s">
         <v>84</v>
@@ -20024,7 +20029,7 @@
         <v>40</v>
       </c>
       <c r="I480" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J480" t="s">
         <v>84</v>
@@ -20219,7 +20224,7 @@
         <v>29</v>
       </c>
       <c r="I485" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J485" t="s">
         <v>84</v>
@@ -20414,7 +20419,7 @@
         <v>58</v>
       </c>
       <c r="I490" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J490" t="s">
         <v>84</v>
@@ -20609,7 +20614,7 @@
         <v>36</v>
       </c>
       <c r="I495" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J495" t="s">
         <v>86</v>
@@ -20804,7 +20809,7 @@
         <v>43</v>
       </c>
       <c r="I500" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J500" t="s">
         <v>84</v>
@@ -20999,7 +21004,7 @@
         <v>39</v>
       </c>
       <c r="I505" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J505" t="s">
         <v>84</v>
@@ -21194,7 +21199,7 @@
         <v>40</v>
       </c>
       <c r="I510" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J510" t="s">
         <v>84</v>
@@ -21795,7 +21800,7 @@
         <v>36</v>
       </c>
       <c r="I525" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J525" t="s">
         <v>86</v>
@@ -21992,7 +21997,7 @@
         <v>38</v>
       </c>
       <c r="I530" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J530" t="s">
         <v>82</v>
@@ -22035,7 +22040,7 @@
         <v>38</v>
       </c>
       <c r="I531" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J531" t="s">
         <v>86</v>
@@ -22199,7 +22204,7 @@
         <v>29</v>
       </c>
       <c r="I535" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J535" t="s">
         <v>84</v>
@@ -22396,10 +22401,10 @@
         <v>58</v>
       </c>
       <c r="I540" t="s">
+        <v>113</v>
+      </c>
+      <c r="J540" t="s">
         <v>114</v>
-      </c>
-      <c r="J540" t="s">
-        <v>115</v>
       </c>
       <c r="K540" t="s">
         <v>48</v>
@@ -22591,10 +22596,10 @@
         <v>59</v>
       </c>
       <c r="I545" t="s">
+        <v>113</v>
+      </c>
+      <c r="J545" t="s">
         <v>114</v>
-      </c>
-      <c r="J545" t="s">
-        <v>115</v>
       </c>
       <c r="K545" t="s">
         <v>48</v>
@@ -22790,7 +22795,7 @@
         <v>57</v>
       </c>
       <c r="I550" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J550" t="s">
         <v>82</v>
@@ -22987,10 +22992,10 @@
         <v>36</v>
       </c>
       <c r="I555" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J555" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K555" t="s">
         <v>48</v>
@@ -23030,10 +23035,10 @@
         <v>36</v>
       </c>
       <c r="I556" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J556" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K556" t="s">
         <v>48</v>
@@ -23190,7 +23195,7 @@
         <v>43</v>
       </c>
       <c r="I560" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J560" t="s">
         <v>84</v>
@@ -23385,10 +23390,10 @@
         <v>38</v>
       </c>
       <c r="I565" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J565" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K565" t="s">
         <v>48</v>
@@ -23580,10 +23585,10 @@
         <v>39</v>
       </c>
       <c r="I570" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J570" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K570" t="s">
         <v>48</v>
@@ -23775,10 +23780,10 @@
         <v>40</v>
       </c>
       <c r="I575" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J575" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K575" t="s">
         <v>48</v>
@@ -23974,10 +23979,10 @@
         <v>41</v>
       </c>
       <c r="I580" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J580" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K580" t="s">
         <v>48</v>
@@ -24019,10 +24024,10 @@
         <v>41</v>
       </c>
       <c r="I581" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J581" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K581" t="s">
         <v>48</v>
@@ -24185,10 +24190,10 @@
         <v>49</v>
       </c>
       <c r="I585" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J585" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K585" t="s">
         <v>48</v>
@@ -24431,7 +24436,7 @@
         <v>29</v>
       </c>
       <c r="I591" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J591" t="s">
         <v>84</v>
@@ -24476,7 +24481,7 @@
         <v>29</v>
       </c>
       <c r="I592" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J592" t="s">
         <v>86</v>
@@ -24603,10 +24608,10 @@
         <v>58</v>
       </c>
       <c r="I595" t="s">
+        <v>113</v>
+      </c>
+      <c r="J595" t="s">
         <v>114</v>
-      </c>
-      <c r="J595" t="s">
-        <v>115</v>
       </c>
       <c r="K595" t="s">
         <v>50</v>
@@ -24798,10 +24803,10 @@
         <v>59</v>
       </c>
       <c r="I600" t="s">
+        <v>113</v>
+      </c>
+      <c r="J600" t="s">
         <v>114</v>
-      </c>
-      <c r="J600" t="s">
-        <v>115</v>
       </c>
       <c r="K600" t="s">
         <v>50</v>
@@ -24997,7 +25002,7 @@
         <v>57</v>
       </c>
       <c r="I605" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J605" t="s">
         <v>82</v>
@@ -25194,10 +25199,10 @@
         <v>36</v>
       </c>
       <c r="I610" t="s">
+        <v>93</v>
+      </c>
+      <c r="J610" t="s">
         <v>94</v>
-      </c>
-      <c r="J610" t="s">
-        <v>95</v>
       </c>
       <c r="K610" t="s">
         <v>50</v>
@@ -25389,7 +25394,7 @@
         <v>43</v>
       </c>
       <c r="I615" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J615" t="s">
         <v>84</v>
@@ -25584,10 +25589,10 @@
         <v>38</v>
       </c>
       <c r="I620" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J620" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K620" t="s">
         <v>50</v>
@@ -25779,7 +25784,7 @@
         <v>39</v>
       </c>
       <c r="I625" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J625" t="s">
         <v>84</v>
@@ -25974,10 +25979,10 @@
         <v>40</v>
       </c>
       <c r="I630" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J630" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K630" t="s">
         <v>50</v>
@@ -26380,7 +26385,7 @@
         <v>58</v>
       </c>
       <c r="I640" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J640" t="s">
         <v>86</v>
@@ -26575,10 +26580,10 @@
         <v>59</v>
       </c>
       <c r="I645" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J645" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K645" t="s">
         <v>51</v>
@@ -26770,10 +26775,10 @@
         <v>36</v>
       </c>
       <c r="I650" t="s">
+        <v>93</v>
+      </c>
+      <c r="J650" t="s">
         <v>94</v>
-      </c>
-      <c r="J650" t="s">
-        <v>95</v>
       </c>
       <c r="K650" t="s">
         <v>51</v>
@@ -26965,7 +26970,7 @@
         <v>43</v>
       </c>
       <c r="I655" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J655" t="s">
         <v>84</v>
@@ -27008,7 +27013,7 @@
         <v>43</v>
       </c>
       <c r="I656" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J656" t="s">
         <v>84</v>
@@ -27168,10 +27173,10 @@
         <v>38</v>
       </c>
       <c r="I660" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J660" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K660" t="s">
         <v>51</v>
@@ -27367,10 +27372,10 @@
         <v>39</v>
       </c>
       <c r="I665" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J665" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K665" t="s">
         <v>51</v>
@@ -27564,7 +27569,7 @@
         <v>40</v>
       </c>
       <c r="I670" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J670" t="s">
         <v>86</v>
@@ -27962,7 +27967,7 @@
         <v>39</v>
       </c>
       <c r="I680" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J680" t="s">
         <v>84</v>
@@ -28157,7 +28162,7 @@
         <v>40</v>
       </c>
       <c r="I685" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J685" t="s">
         <v>84</v>
@@ -28352,7 +28357,7 @@
         <v>36</v>
       </c>
       <c r="I690" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J690" t="s">
         <v>86</v>
@@ -28551,7 +28556,7 @@
         <v>38</v>
       </c>
       <c r="I695" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J695" t="s">
         <v>86</v>
@@ -28748,7 +28753,7 @@
         <v>39</v>
       </c>
       <c r="I700" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J700" t="s">
         <v>86</v>

--- a/inst/extdata/GH-ZA-Allocation-sample-2019.xlsx
+++ b/inst/extdata/GH-ZA-Allocation-sample-2019.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/github/IEATools/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/IEATools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F099DD-EC2D-764D-8002-EF80B965CD58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE457F92-7319-0946-BF2E-03D51BDCA308}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20460" yWindow="460" windowWidth="25520" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FU Allocations" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -399,21 +407,25 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF104273"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF918700"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -779,9 +791,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O707"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A490" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O527" sqref="O527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21814,7 +21826,7 @@
       <c r="M525" s="4"/>
       <c r="N525" s="7"/>
       <c r="O525" s="8">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:15" x14ac:dyDescent="0.2">
@@ -21850,9 +21862,7 @@
       </c>
       <c r="M526" s="4"/>
       <c r="N526" s="7"/>
-      <c r="O526" s="8">
-        <v>0.6</v>
-      </c>
+      <c r="O526" s="8"/>
     </row>
     <row r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" t="s">

--- a/inst/extdata/GH-ZA-Allocation-sample-2019.xlsx
+++ b/inst/extdata/GH-ZA-Allocation-sample-2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/IEATools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE457F92-7319-0946-BF2E-03D51BDCA308}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4710D9C-DD61-CE40-8CE0-2A2BC82A053F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20460" yWindow="460" windowWidth="25520" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7439" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7449" uniqueCount="120">
   <si>
     <t>Country</t>
   </si>
@@ -789,11 +789,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O707"/>
+  <dimension ref="A1:O708"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A490" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O527" sqref="O527"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A644" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L708" sqref="L708"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -29061,6 +29061,41 @@
       <c r="N707" s="8"/>
       <c r="O707" s="8"/>
     </row>
+    <row r="708" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>53</v>
+      </c>
+      <c r="B708" t="s">
+        <v>16</v>
+      </c>
+      <c r="C708" t="s">
+        <v>17</v>
+      </c>
+      <c r="D708" t="s">
+        <v>18</v>
+      </c>
+      <c r="E708" t="s">
+        <v>31</v>
+      </c>
+      <c r="F708" t="s">
+        <v>47</v>
+      </c>
+      <c r="G708" t="s">
+        <v>21</v>
+      </c>
+      <c r="H708" t="s">
+        <v>29</v>
+      </c>
+      <c r="K708" t="s">
+        <v>78</v>
+      </c>
+      <c r="L708" t="s">
+        <v>97</v>
+      </c>
+      <c r="M708" s="4"/>
+      <c r="N708" s="8"/>
+      <c r="O708" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/inst/extdata/GH-ZA-Allocation-sample-2019.xlsx
+++ b/inst/extdata/GH-ZA-Allocation-sample-2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/IEATools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4710D9C-DD61-CE40-8CE0-2A2BC82A053F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED93E7D-38E6-D94A-82AD-608A4EA69508}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20460" yWindow="460" windowWidth="25520" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,12 +204,6 @@
     <t>Gas works gas</t>
   </si>
   <si>
-    <t>Hard coal (if no detail) (Coal mines)</t>
-  </si>
-  <si>
-    <t>Other bituminous coal (Coal mines)</t>
-  </si>
-  <si>
     <t>Construction</t>
   </si>
   <si>
@@ -388,6 +382,12 @@
   </si>
   <si>
     <t>Oil furnaces</t>
+  </si>
+  <si>
+    <t>Hard coal (if no detail) [of Coal mines]</t>
+  </si>
+  <si>
+    <t>Other bituminous coal [of Coal mines]</t>
   </si>
 </sst>
 </file>
@@ -791,9 +791,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O708"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A644" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L708" sqref="L708"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A658" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I629" sqref="I629"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -973,10 +973,10 @@
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K4" t="s">
         <v>23</v>
@@ -1174,10 +1174,10 @@
         <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s">
         <v>30</v>
@@ -1219,10 +1219,10 @@
         <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K10" t="s">
         <v>30</v>
@@ -1381,10 +1381,10 @@
         <v>29</v>
       </c>
       <c r="I14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s">
         <v>33</v>
@@ -1424,10 +1424,10 @@
         <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s">
         <v>33</v>
@@ -1584,10 +1584,10 @@
         <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s">
         <v>34</v>
@@ -1627,10 +1627,10 @@
         <v>29</v>
       </c>
       <c r="I20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s">
         <v>34</v>
@@ -1787,10 +1787,10 @@
         <v>29</v>
       </c>
       <c r="I24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K24" t="s">
         <v>35</v>
@@ -1830,10 +1830,10 @@
         <v>29</v>
       </c>
       <c r="I25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s">
         <v>35</v>
@@ -1873,10 +1873,10 @@
         <v>29</v>
       </c>
       <c r="I26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K26" t="s">
         <v>35</v>
@@ -1998,10 +1998,10 @@
         <v>36</v>
       </c>
       <c r="I29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s">
         <v>37</v>
@@ -2193,10 +2193,10 @@
         <v>38</v>
       </c>
       <c r="I34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K34" t="s">
         <v>37</v>
@@ -2392,10 +2392,10 @@
         <v>39</v>
       </c>
       <c r="I39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K39" t="s">
         <v>37</v>
@@ -2593,10 +2593,10 @@
         <v>40</v>
       </c>
       <c r="I44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K44" t="s">
         <v>37</v>
@@ -2794,10 +2794,10 @@
         <v>41</v>
       </c>
       <c r="I49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K49" t="s">
         <v>37</v>
@@ -2995,10 +2995,10 @@
         <v>29</v>
       </c>
       <c r="I54" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J54" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K54" t="s">
         <v>37</v>
@@ -3040,10 +3040,10 @@
         <v>29</v>
       </c>
       <c r="I55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K55" t="s">
         <v>37</v>
@@ -3085,10 +3085,10 @@
         <v>29</v>
       </c>
       <c r="I56" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K56" t="s">
         <v>37</v>
@@ -3216,10 +3216,10 @@
         <v>43</v>
       </c>
       <c r="I59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J59" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K59" t="s">
         <v>44</v>
@@ -3417,10 +3417,10 @@
         <v>39</v>
       </c>
       <c r="I64" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J64" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K64" t="s">
         <v>44</v>
@@ -3462,10 +3462,10 @@
         <v>39</v>
       </c>
       <c r="I65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J65" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K65" t="s">
         <v>44</v>
@@ -3628,10 +3628,10 @@
         <v>39</v>
       </c>
       <c r="I69" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J69" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K69" t="s">
         <v>45</v>
@@ -3825,10 +3825,10 @@
         <v>40</v>
       </c>
       <c r="I74" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J74" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K74" t="s">
         <v>45</v>
@@ -4024,10 +4024,10 @@
         <v>39</v>
       </c>
       <c r="I79" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J79" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K79" t="s">
         <v>46</v>
@@ -4221,10 +4221,10 @@
         <v>40</v>
       </c>
       <c r="I84" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K84" t="s">
         <v>46</v>
@@ -4420,10 +4420,10 @@
         <v>36</v>
       </c>
       <c r="I89" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J89" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K89" t="s">
         <v>48</v>
@@ -4621,10 +4621,10 @@
         <v>38</v>
       </c>
       <c r="I94" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J94" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K94" t="s">
         <v>48</v>
@@ -4822,10 +4822,10 @@
         <v>41</v>
       </c>
       <c r="I99" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J99" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K99" t="s">
         <v>48</v>
@@ -5023,10 +5023,10 @@
         <v>49</v>
       </c>
       <c r="I104" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J104" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K104" t="s">
         <v>48</v>
@@ -5224,10 +5224,10 @@
         <v>29</v>
       </c>
       <c r="I109" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J109" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K109" t="s">
         <v>48</v>
@@ -5269,10 +5269,10 @@
         <v>29</v>
       </c>
       <c r="I110" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J110" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K110" t="s">
         <v>48</v>
@@ -5314,10 +5314,10 @@
         <v>29</v>
       </c>
       <c r="I111" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J111" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K111" t="s">
         <v>48</v>
@@ -5359,16 +5359,16 @@
         <v>29</v>
       </c>
       <c r="I112" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J112" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K112" t="s">
         <v>48</v>
       </c>
       <c r="L112" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M112" s="4"/>
       <c r="N112" s="9">
@@ -5486,10 +5486,10 @@
         <v>36</v>
       </c>
       <c r="I115" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J115" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K115" t="s">
         <v>50</v>
@@ -5681,10 +5681,10 @@
         <v>39</v>
       </c>
       <c r="I120" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J120" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K120" t="s">
         <v>50</v>
@@ -5876,10 +5876,10 @@
         <v>41</v>
       </c>
       <c r="I125" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J125" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K125" t="s">
         <v>50</v>
@@ -6075,10 +6075,10 @@
         <v>29</v>
       </c>
       <c r="I130" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J130" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K130" t="s">
         <v>50</v>
@@ -6276,10 +6276,10 @@
         <v>39</v>
       </c>
       <c r="I135" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J135" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K135" t="s">
         <v>51</v>
@@ -6321,10 +6321,10 @@
         <v>39</v>
       </c>
       <c r="I136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J136" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K136" t="s">
         <v>51</v>
@@ -6483,10 +6483,10 @@
         <v>41</v>
       </c>
       <c r="I140" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J140" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K140" t="s">
         <v>51</v>
@@ -6678,10 +6678,10 @@
         <v>29</v>
       </c>
       <c r="I145" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J145" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K145" t="s">
         <v>51</v>
@@ -6721,10 +6721,10 @@
         <v>29</v>
       </c>
       <c r="I146" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J146" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K146" t="s">
         <v>51</v>
@@ -6881,10 +6881,10 @@
         <v>43</v>
       </c>
       <c r="I150" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J150" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K150" t="s">
         <v>52</v>
@@ -7080,10 +7080,10 @@
         <v>29</v>
       </c>
       <c r="I155" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J155" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K155" t="s">
         <v>54</v>
@@ -7125,10 +7125,10 @@
         <v>29</v>
       </c>
       <c r="I156" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J156" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K156" t="s">
         <v>54</v>
@@ -7287,10 +7287,10 @@
         <v>29</v>
       </c>
       <c r="I160" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J160" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K160" t="s">
         <v>55</v>
@@ -7330,10 +7330,10 @@
         <v>29</v>
       </c>
       <c r="I161" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J161" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K161" t="s">
         <v>55</v>
@@ -7490,10 +7490,10 @@
         <v>29</v>
       </c>
       <c r="I165" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J165" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K165" t="s">
         <v>56</v>
@@ -7533,10 +7533,10 @@
         <v>29</v>
       </c>
       <c r="I166" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J166" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K166" t="s">
         <v>56</v>
@@ -7693,10 +7693,10 @@
         <v>57</v>
       </c>
       <c r="I170" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J170" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K170" t="s">
         <v>23</v>
@@ -7736,10 +7736,10 @@
         <v>57</v>
       </c>
       <c r="I171" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J171" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K171" t="s">
         <v>23</v>
@@ -7896,10 +7896,10 @@
         <v>22</v>
       </c>
       <c r="I175" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J175" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K175" t="s">
         <v>23</v>
@@ -8091,10 +8091,10 @@
         <v>40</v>
       </c>
       <c r="I180" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J180" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K180" t="s">
         <v>23</v>
@@ -8286,10 +8286,10 @@
         <v>29</v>
       </c>
       <c r="I185" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J185" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K185" t="s">
         <v>23</v>
@@ -8329,10 +8329,10 @@
         <v>29</v>
       </c>
       <c r="I186" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J186" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K186" t="s">
         <v>23</v>
@@ -8493,10 +8493,10 @@
         <v>29</v>
       </c>
       <c r="I190" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J190" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K190" t="s">
         <v>30</v>
@@ -8605,7 +8605,7 @@
         <v>21</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
@@ -8646,7 +8646,7 @@
         <v>21</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
@@ -8687,13 +8687,13 @@
         <v>21</v>
       </c>
       <c r="H195" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I195" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J195" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K195" t="s">
         <v>33</v>
@@ -8730,7 +8730,7 @@
         <v>21</v>
       </c>
       <c r="H196" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="K196" t="s">
         <v>33</v>
@@ -8765,7 +8765,7 @@
         <v>21</v>
       </c>
       <c r="H197" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="K197" t="s">
         <v>33</v>
@@ -8800,7 +8800,7 @@
         <v>21</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I198" s="10"/>
       <c r="J198" s="10"/>
@@ -8841,7 +8841,7 @@
         <v>21</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I199" s="10"/>
       <c r="J199" s="10"/>
@@ -8882,13 +8882,13 @@
         <v>21</v>
       </c>
       <c r="H200" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I200" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J200" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K200" t="s">
         <v>33</v>
@@ -8925,7 +8925,7 @@
         <v>21</v>
       </c>
       <c r="H201" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="K201" t="s">
         <v>33</v>
@@ -8960,7 +8960,7 @@
         <v>21</v>
       </c>
       <c r="H202" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="K202" t="s">
         <v>33</v>
@@ -9080,10 +9080,10 @@
         <v>57</v>
       </c>
       <c r="I205" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J205" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K205" t="s">
         <v>33</v>
@@ -9275,10 +9275,10 @@
         <v>36</v>
       </c>
       <c r="I210" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J210" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K210" t="s">
         <v>33</v>
@@ -9470,10 +9470,10 @@
         <v>43</v>
       </c>
       <c r="I215" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J215" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K215" t="s">
         <v>33</v>
@@ -9665,10 +9665,10 @@
         <v>38</v>
       </c>
       <c r="I220" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J220" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K220" t="s">
         <v>33</v>
@@ -9860,10 +9860,10 @@
         <v>39</v>
       </c>
       <c r="I225" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J225" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K225" t="s">
         <v>33</v>
@@ -10055,10 +10055,10 @@
         <v>40</v>
       </c>
       <c r="I230" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J230" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K230" t="s">
         <v>33</v>
@@ -10254,10 +10254,10 @@
         <v>29</v>
       </c>
       <c r="I235" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J235" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K235" t="s">
         <v>33</v>
@@ -10371,7 +10371,7 @@
       <c r="I238" s="2"/>
       <c r="J238" s="2"/>
       <c r="K238" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L238" s="2" t="s">
         <v>24</v>
@@ -10412,7 +10412,7 @@
       <c r="I239" s="2"/>
       <c r="J239" s="2"/>
       <c r="K239" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L239" s="2" t="s">
         <v>25</v>
@@ -10451,13 +10451,13 @@
         <v>36</v>
       </c>
       <c r="I240" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J240" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K240" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L240" t="s">
         <v>26</v>
@@ -10494,7 +10494,7 @@
         <v>36</v>
       </c>
       <c r="K241" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L241" t="s">
         <v>27</v>
@@ -10529,7 +10529,7 @@
         <v>36</v>
       </c>
       <c r="K242" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L242" t="s">
         <v>28</v>
@@ -10566,7 +10566,7 @@
       <c r="I243" s="10"/>
       <c r="J243" s="10"/>
       <c r="K243" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L243" s="2" t="s">
         <v>24</v>
@@ -10607,7 +10607,7 @@
       <c r="I244" s="10"/>
       <c r="J244" s="10"/>
       <c r="K244" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L244" s="2" t="s">
         <v>25</v>
@@ -10646,13 +10646,13 @@
         <v>43</v>
       </c>
       <c r="I245" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J245" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K245" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L245" t="s">
         <v>26</v>
@@ -10689,7 +10689,7 @@
         <v>43</v>
       </c>
       <c r="K246" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L246" t="s">
         <v>27</v>
@@ -10724,7 +10724,7 @@
         <v>43</v>
       </c>
       <c r="K247" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L247" t="s">
         <v>28</v>
@@ -10761,7 +10761,7 @@
       <c r="I248" s="10"/>
       <c r="J248" s="10"/>
       <c r="K248" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L248" s="2" t="s">
         <v>24</v>
@@ -10802,7 +10802,7 @@
       <c r="I249" s="10"/>
       <c r="J249" s="10"/>
       <c r="K249" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L249" s="2" t="s">
         <v>25</v>
@@ -10841,13 +10841,13 @@
         <v>38</v>
       </c>
       <c r="I250" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J250" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K250" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L250" t="s">
         <v>26</v>
@@ -10884,7 +10884,7 @@
         <v>38</v>
       </c>
       <c r="K251" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L251" t="s">
         <v>27</v>
@@ -10919,7 +10919,7 @@
         <v>38</v>
       </c>
       <c r="K252" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L252" t="s">
         <v>28</v>
@@ -10956,7 +10956,7 @@
       <c r="I253" s="10"/>
       <c r="J253" s="10"/>
       <c r="K253" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L253" s="2" t="s">
         <v>24</v>
@@ -10997,7 +10997,7 @@
       <c r="I254" s="10"/>
       <c r="J254" s="10"/>
       <c r="K254" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L254" s="2" t="s">
         <v>25</v>
@@ -11036,13 +11036,13 @@
         <v>39</v>
       </c>
       <c r="I255" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J255" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K255" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L255" t="s">
         <v>26</v>
@@ -11079,7 +11079,7 @@
         <v>39</v>
       </c>
       <c r="K256" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L256" t="s">
         <v>27</v>
@@ -11114,7 +11114,7 @@
         <v>39</v>
       </c>
       <c r="K257" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L257" t="s">
         <v>28</v>
@@ -11151,7 +11151,7 @@
       <c r="I258" s="10"/>
       <c r="J258" s="10"/>
       <c r="K258" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L258" s="2" t="s">
         <v>24</v>
@@ -11192,7 +11192,7 @@
       <c r="I259" s="10"/>
       <c r="J259" s="10"/>
       <c r="K259" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L259" s="2" t="s">
         <v>25</v>
@@ -11231,13 +11231,13 @@
         <v>40</v>
       </c>
       <c r="I260" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J260" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K260" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L260" t="s">
         <v>26</v>
@@ -11274,7 +11274,7 @@
         <v>40</v>
       </c>
       <c r="K261" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L261" t="s">
         <v>27</v>
@@ -11309,7 +11309,7 @@
         <v>40</v>
       </c>
       <c r="K262" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L262" t="s">
         <v>28</v>
@@ -11346,7 +11346,7 @@
       <c r="I263" s="10"/>
       <c r="J263" s="10"/>
       <c r="K263" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L263" s="2" t="s">
         <v>24</v>
@@ -11389,7 +11389,7 @@
       <c r="I264" s="10"/>
       <c r="J264" s="10"/>
       <c r="K264" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L264" s="2" t="s">
         <v>25</v>
@@ -11430,13 +11430,13 @@
         <v>29</v>
       </c>
       <c r="I265" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J265" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K265" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L265" t="s">
         <v>26</v>
@@ -11475,13 +11475,13 @@
         <v>29</v>
       </c>
       <c r="I266" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J266" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K266" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L266" t="s">
         <v>27</v>
@@ -11520,7 +11520,7 @@
         <v>29</v>
       </c>
       <c r="K267" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L267" t="s">
         <v>28</v>
@@ -11552,12 +11552,12 @@
         <v>21</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I268" s="2"/>
       <c r="J268" s="2"/>
       <c r="K268" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L268" s="2" t="s">
         <v>24</v>
@@ -11593,12 +11593,12 @@
         <v>21</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I269" s="2"/>
       <c r="J269" s="2"/>
       <c r="K269" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L269" s="2" t="s">
         <v>25</v>
@@ -11634,16 +11634,16 @@
         <v>21</v>
       </c>
       <c r="H270" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I270" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J270" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K270" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L270" t="s">
         <v>26</v>
@@ -11677,10 +11677,10 @@
         <v>21</v>
       </c>
       <c r="H271" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="K271" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L271" t="s">
         <v>27</v>
@@ -11712,10 +11712,10 @@
         <v>21</v>
       </c>
       <c r="H272" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="K272" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L272" t="s">
         <v>28</v>
@@ -11747,12 +11747,12 @@
         <v>21</v>
       </c>
       <c r="H273" s="2" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I273" s="10"/>
       <c r="J273" s="10"/>
       <c r="K273" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L273" s="2" t="s">
         <v>24</v>
@@ -11788,12 +11788,12 @@
         <v>21</v>
       </c>
       <c r="H274" s="2" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I274" s="10"/>
       <c r="J274" s="10"/>
       <c r="K274" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L274" s="2" t="s">
         <v>25</v>
@@ -11829,16 +11829,16 @@
         <v>21</v>
       </c>
       <c r="H275" t="s">
+        <v>119</v>
+      </c>
+      <c r="I275" t="s">
+        <v>77</v>
+      </c>
+      <c r="J275" t="s">
+        <v>78</v>
+      </c>
+      <c r="K275" t="s">
         <v>59</v>
-      </c>
-      <c r="I275" t="s">
-        <v>79</v>
-      </c>
-      <c r="J275" t="s">
-        <v>80</v>
-      </c>
-      <c r="K275" t="s">
-        <v>61</v>
       </c>
       <c r="L275" t="s">
         <v>26</v>
@@ -11872,10 +11872,10 @@
         <v>21</v>
       </c>
       <c r="H276" t="s">
+        <v>119</v>
+      </c>
+      <c r="K276" t="s">
         <v>59</v>
-      </c>
-      <c r="K276" t="s">
-        <v>61</v>
       </c>
       <c r="L276" t="s">
         <v>27</v>
@@ -11907,10 +11907,10 @@
         <v>21</v>
       </c>
       <c r="H277" t="s">
+        <v>119</v>
+      </c>
+      <c r="K277" t="s">
         <v>59</v>
-      </c>
-      <c r="K277" t="s">
-        <v>61</v>
       </c>
       <c r="L277" t="s">
         <v>28</v>
@@ -11942,12 +11942,12 @@
         <v>21</v>
       </c>
       <c r="H278" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I278" s="10"/>
       <c r="J278" s="10"/>
       <c r="K278" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L278" s="2" t="s">
         <v>24</v>
@@ -11985,12 +11985,12 @@
         <v>21</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I279" s="10"/>
       <c r="J279" s="10"/>
       <c r="K279" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L279" s="2" t="s">
         <v>25</v>
@@ -12028,16 +12028,16 @@
         <v>21</v>
       </c>
       <c r="H280" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I280" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J280" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K280" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L280" t="s">
         <v>26</v>
@@ -12073,10 +12073,10 @@
         <v>21</v>
       </c>
       <c r="H281" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K281" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L281" t="s">
         <v>27</v>
@@ -12108,10 +12108,10 @@
         <v>21</v>
       </c>
       <c r="H282" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K282" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L282" t="s">
         <v>28</v>
@@ -12148,7 +12148,7 @@
       <c r="I283" s="10"/>
       <c r="J283" s="10"/>
       <c r="K283" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L283" s="2" t="s">
         <v>24</v>
@@ -12191,7 +12191,7 @@
       <c r="I284" s="10"/>
       <c r="J284" s="10"/>
       <c r="K284" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L284" s="2" t="s">
         <v>25</v>
@@ -12232,13 +12232,13 @@
         <v>57</v>
       </c>
       <c r="I285" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J285" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K285" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L285" t="s">
         <v>26</v>
@@ -12277,7 +12277,7 @@
         <v>57</v>
       </c>
       <c r="K286" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L286" t="s">
         <v>27</v>
@@ -12312,7 +12312,7 @@
         <v>57</v>
       </c>
       <c r="K287" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L287" t="s">
         <v>28</v>
@@ -12344,12 +12344,12 @@
         <v>21</v>
       </c>
       <c r="H288" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I288" s="10"/>
       <c r="J288" s="10"/>
       <c r="K288" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L288" s="2" t="s">
         <v>24</v>
@@ -12387,12 +12387,12 @@
         <v>21</v>
       </c>
       <c r="H289" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I289" s="10"/>
       <c r="J289" s="10"/>
       <c r="K289" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L289" s="2" t="s">
         <v>25</v>
@@ -12430,16 +12430,16 @@
         <v>21</v>
       </c>
       <c r="H290" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I290" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J290" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K290" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L290" t="s">
         <v>26</v>
@@ -12475,10 +12475,10 @@
         <v>21</v>
       </c>
       <c r="H291" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K291" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L291" t="s">
         <v>27</v>
@@ -12510,10 +12510,10 @@
         <v>21</v>
       </c>
       <c r="H292" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K292" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L292" t="s">
         <v>28</v>
@@ -12545,12 +12545,12 @@
         <v>21</v>
       </c>
       <c r="H293" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I293" s="10"/>
       <c r="J293" s="10"/>
       <c r="K293" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L293" s="2" t="s">
         <v>24</v>
@@ -12588,12 +12588,12 @@
         <v>21</v>
       </c>
       <c r="H294" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I294" s="10"/>
       <c r="J294" s="10"/>
       <c r="K294" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L294" s="2" t="s">
         <v>25</v>
@@ -12631,16 +12631,16 @@
         <v>21</v>
       </c>
       <c r="H295" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I295" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J295" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K295" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L295" t="s">
         <v>26</v>
@@ -12676,10 +12676,10 @@
         <v>21</v>
       </c>
       <c r="H296" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K296" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L296" t="s">
         <v>27</v>
@@ -12711,10 +12711,10 @@
         <v>21</v>
       </c>
       <c r="H297" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K297" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L297" t="s">
         <v>28</v>
@@ -12751,7 +12751,7 @@
       <c r="I298" s="10"/>
       <c r="J298" s="10"/>
       <c r="K298" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L298" s="2" t="s">
         <v>24</v>
@@ -12794,7 +12794,7 @@
       <c r="I299" s="10"/>
       <c r="J299" s="10"/>
       <c r="K299" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L299" s="2" t="s">
         <v>25</v>
@@ -12835,13 +12835,13 @@
         <v>29</v>
       </c>
       <c r="I300" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J300" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K300" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L300" t="s">
         <v>26</v>
@@ -12880,13 +12880,13 @@
         <v>29</v>
       </c>
       <c r="I301" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J301" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K301" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L301" t="s">
         <v>27</v>
@@ -12925,13 +12925,13 @@
         <v>29</v>
       </c>
       <c r="I302" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J302" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K302" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L302" t="s">
         <v>28</v>
@@ -12967,12 +12967,12 @@
         <v>21</v>
       </c>
       <c r="H303" s="2" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I303" s="2"/>
       <c r="J303" s="2"/>
       <c r="K303" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L303" s="2" t="s">
         <v>24</v>
@@ -13008,12 +13008,12 @@
         <v>21</v>
       </c>
       <c r="H304" s="2" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I304" s="2"/>
       <c r="J304" s="2"/>
       <c r="K304" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L304" s="2" t="s">
         <v>25</v>
@@ -13049,16 +13049,16 @@
         <v>21</v>
       </c>
       <c r="H305" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I305" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J305" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K305" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L305" t="s">
         <v>26</v>
@@ -13092,16 +13092,16 @@
         <v>21</v>
       </c>
       <c r="H306" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I306" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J306" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K306" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L306" t="s">
         <v>27</v>
@@ -13135,10 +13135,10 @@
         <v>21</v>
       </c>
       <c r="H307" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="K307" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L307" t="s">
         <v>28</v>
@@ -13175,7 +13175,7 @@
       <c r="I308" s="10"/>
       <c r="J308" s="10"/>
       <c r="K308" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L308" s="2" t="s">
         <v>24</v>
@@ -13218,7 +13218,7 @@
       <c r="I309" s="10"/>
       <c r="J309" s="10"/>
       <c r="K309" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L309" s="2" t="s">
         <v>25</v>
@@ -13259,13 +13259,13 @@
         <v>57</v>
       </c>
       <c r="I310" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J310" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K310" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L310" t="s">
         <v>26</v>
@@ -13304,7 +13304,7 @@
         <v>57</v>
       </c>
       <c r="K311" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L311" t="s">
         <v>27</v>
@@ -13339,7 +13339,7 @@
         <v>57</v>
       </c>
       <c r="K312" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L312" t="s">
         <v>28</v>
@@ -13371,12 +13371,12 @@
         <v>21</v>
       </c>
       <c r="H313" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I313" s="10"/>
       <c r="J313" s="10"/>
       <c r="K313" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L313" s="2" t="s">
         <v>24</v>
@@ -13412,12 +13412,12 @@
         <v>21</v>
       </c>
       <c r="H314" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I314" s="10"/>
       <c r="J314" s="10"/>
       <c r="K314" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L314" s="2" t="s">
         <v>25</v>
@@ -13453,16 +13453,16 @@
         <v>21</v>
       </c>
       <c r="H315" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I315" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J315" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K315" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L315" t="s">
         <v>26</v>
@@ -13496,10 +13496,10 @@
         <v>21</v>
       </c>
       <c r="H316" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K316" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L316" t="s">
         <v>27</v>
@@ -13531,10 +13531,10 @@
         <v>21</v>
       </c>
       <c r="H317" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K317" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L317" t="s">
         <v>28</v>
@@ -13571,7 +13571,7 @@
       <c r="I318" s="10"/>
       <c r="J318" s="10"/>
       <c r="K318" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L318" s="2" t="s">
         <v>24</v>
@@ -13614,7 +13614,7 @@
       <c r="I319" s="10"/>
       <c r="J319" s="10"/>
       <c r="K319" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L319" s="2" t="s">
         <v>25</v>
@@ -13655,13 +13655,13 @@
         <v>29</v>
       </c>
       <c r="I320" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J320" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K320" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L320" t="s">
         <v>26</v>
@@ -13700,13 +13700,13 @@
         <v>29</v>
       </c>
       <c r="I321" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J321" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K321" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L321" t="s">
         <v>27</v>
@@ -13745,7 +13745,7 @@
         <v>29</v>
       </c>
       <c r="K322" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L322" t="s">
         <v>28</v>
@@ -13777,7 +13777,7 @@
         <v>21</v>
       </c>
       <c r="H323" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I323" s="2"/>
       <c r="J323" s="2"/>
@@ -13818,7 +13818,7 @@
         <v>21</v>
       </c>
       <c r="H324" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I324" s="2"/>
       <c r="J324" s="2"/>
@@ -13859,13 +13859,13 @@
         <v>21</v>
       </c>
       <c r="H325" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I325" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J325" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K325" t="s">
         <v>34</v>
@@ -13902,7 +13902,7 @@
         <v>21</v>
       </c>
       <c r="H326" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="K326" t="s">
         <v>34</v>
@@ -13937,7 +13937,7 @@
         <v>21</v>
       </c>
       <c r="H327" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="K327" t="s">
         <v>34</v>
@@ -14057,10 +14057,10 @@
         <v>57</v>
       </c>
       <c r="I330" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J330" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K330" t="s">
         <v>34</v>
@@ -14252,10 +14252,10 @@
         <v>29</v>
       </c>
       <c r="I335" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J335" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K335" t="s">
         <v>34</v>
@@ -14362,12 +14362,12 @@
         <v>21</v>
       </c>
       <c r="H338" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I338" s="2"/>
       <c r="J338" s="2"/>
       <c r="K338" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L338" s="2" t="s">
         <v>24</v>
@@ -14403,12 +14403,12 @@
         <v>21</v>
       </c>
       <c r="H339" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I339" s="2"/>
       <c r="J339" s="2"/>
       <c r="K339" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L339" s="2" t="s">
         <v>25</v>
@@ -14444,16 +14444,16 @@
         <v>21</v>
       </c>
       <c r="H340" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I340" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J340" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K340" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L340" t="s">
         <v>26</v>
@@ -14487,10 +14487,10 @@
         <v>21</v>
       </c>
       <c r="H341" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="K341" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L341" t="s">
         <v>27</v>
@@ -14522,10 +14522,10 @@
         <v>21</v>
       </c>
       <c r="H342" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="K342" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L342" t="s">
         <v>28</v>
@@ -14557,12 +14557,12 @@
         <v>21</v>
       </c>
       <c r="H343" s="2" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I343" s="10"/>
       <c r="J343" s="10"/>
       <c r="K343" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L343" s="2" t="s">
         <v>24</v>
@@ -14598,12 +14598,12 @@
         <v>21</v>
       </c>
       <c r="H344" s="2" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I344" s="10"/>
       <c r="J344" s="10"/>
       <c r="K344" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L344" s="2" t="s">
         <v>25</v>
@@ -14639,16 +14639,16 @@
         <v>21</v>
       </c>
       <c r="H345" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I345" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J345" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K345" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L345" t="s">
         <v>26</v>
@@ -14682,10 +14682,10 @@
         <v>21</v>
       </c>
       <c r="H346" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="K346" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L346" t="s">
         <v>27</v>
@@ -14717,10 +14717,10 @@
         <v>21</v>
       </c>
       <c r="H347" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="K347" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L347" t="s">
         <v>28</v>
@@ -14757,7 +14757,7 @@
       <c r="I348" s="10"/>
       <c r="J348" s="10"/>
       <c r="K348" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L348" s="2" t="s">
         <v>24</v>
@@ -14800,7 +14800,7 @@
       <c r="I349" s="10"/>
       <c r="J349" s="10"/>
       <c r="K349" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L349" s="2" t="s">
         <v>25</v>
@@ -14841,13 +14841,13 @@
         <v>57</v>
       </c>
       <c r="I350" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J350" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K350" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L350" t="s">
         <v>26</v>
@@ -14886,7 +14886,7 @@
         <v>57</v>
       </c>
       <c r="K351" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L351" t="s">
         <v>27</v>
@@ -14921,7 +14921,7 @@
         <v>57</v>
       </c>
       <c r="K352" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L352" t="s">
         <v>28</v>
@@ -14958,7 +14958,7 @@
       <c r="I353" s="10"/>
       <c r="J353" s="10"/>
       <c r="K353" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L353" s="2" t="s">
         <v>24</v>
@@ -14999,7 +14999,7 @@
       <c r="I354" s="10"/>
       <c r="J354" s="10"/>
       <c r="K354" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L354" s="2" t="s">
         <v>25</v>
@@ -15038,13 +15038,13 @@
         <v>29</v>
       </c>
       <c r="I355" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J355" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K355" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L355" t="s">
         <v>26</v>
@@ -15081,7 +15081,7 @@
         <v>29</v>
       </c>
       <c r="K356" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L356" t="s">
         <v>27</v>
@@ -15116,7 +15116,7 @@
         <v>29</v>
       </c>
       <c r="K357" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L357" t="s">
         <v>28</v>
@@ -15153,7 +15153,7 @@
       <c r="I358" s="10"/>
       <c r="J358" s="10"/>
       <c r="K358" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L358" s="2" t="s">
         <v>24</v>
@@ -15194,7 +15194,7 @@
       <c r="I359" s="10"/>
       <c r="J359" s="10"/>
       <c r="K359" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L359" s="2" t="s">
         <v>25</v>
@@ -15233,13 +15233,13 @@
         <v>57</v>
       </c>
       <c r="I360" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J360" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K360" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L360" t="s">
         <v>26</v>
@@ -15276,7 +15276,7 @@
         <v>57</v>
       </c>
       <c r="K361" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L361" t="s">
         <v>27</v>
@@ -15311,7 +15311,7 @@
         <v>57</v>
       </c>
       <c r="K362" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L362" t="s">
         <v>28</v>
@@ -15348,7 +15348,7 @@
       <c r="I363" s="10"/>
       <c r="J363" s="10"/>
       <c r="K363" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L363" s="2" t="s">
         <v>24</v>
@@ -15389,7 +15389,7 @@
       <c r="I364" s="10"/>
       <c r="J364" s="10"/>
       <c r="K364" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L364" s="2" t="s">
         <v>25</v>
@@ -15428,13 +15428,13 @@
         <v>29</v>
       </c>
       <c r="I365" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J365" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K365" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L365" t="s">
         <v>26</v>
@@ -15471,13 +15471,13 @@
         <v>29</v>
       </c>
       <c r="I366" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J366" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K366" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L366" t="s">
         <v>27</v>
@@ -15514,7 +15514,7 @@
         <v>29</v>
       </c>
       <c r="K367" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L367" t="s">
         <v>28</v>
@@ -15551,7 +15551,7 @@
       <c r="I368" s="10"/>
       <c r="J368" s="10"/>
       <c r="K368" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L368" s="2" t="s">
         <v>24</v>
@@ -15594,7 +15594,7 @@
       <c r="I369" s="10"/>
       <c r="J369" s="10"/>
       <c r="K369" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L369" s="2" t="s">
         <v>25</v>
@@ -15635,13 +15635,13 @@
         <v>57</v>
       </c>
       <c r="I370" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J370" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K370" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L370" t="s">
         <v>26</v>
@@ -15680,7 +15680,7 @@
         <v>57</v>
       </c>
       <c r="K371" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L371" t="s">
         <v>27</v>
@@ -15715,7 +15715,7 @@
         <v>57</v>
       </c>
       <c r="K372" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L372" t="s">
         <v>28</v>
@@ -15752,7 +15752,7 @@
       <c r="I373" s="10"/>
       <c r="J373" s="10"/>
       <c r="K373" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L373" s="2" t="s">
         <v>24</v>
@@ -15793,7 +15793,7 @@
       <c r="I374" s="10"/>
       <c r="J374" s="10"/>
       <c r="K374" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L374" s="2" t="s">
         <v>25</v>
@@ -15832,13 +15832,13 @@
         <v>29</v>
       </c>
       <c r="I375" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J375" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K375" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L375" t="s">
         <v>26</v>
@@ -15875,7 +15875,7 @@
         <v>29</v>
       </c>
       <c r="K376" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L376" t="s">
         <v>27</v>
@@ -15910,7 +15910,7 @@
         <v>29</v>
       </c>
       <c r="K377" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L377" t="s">
         <v>28</v>
@@ -15947,7 +15947,7 @@
       <c r="I378" s="2"/>
       <c r="J378" s="2"/>
       <c r="K378" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L378" s="2" t="s">
         <v>24</v>
@@ -15988,7 +15988,7 @@
       <c r="I379" s="2"/>
       <c r="J379" s="2"/>
       <c r="K379" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L379" s="2" t="s">
         <v>25</v>
@@ -16027,13 +16027,13 @@
         <v>57</v>
       </c>
       <c r="I380" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J380" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K380" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L380" t="s">
         <v>26</v>
@@ -16070,7 +16070,7 @@
         <v>57</v>
       </c>
       <c r="K381" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L381" t="s">
         <v>27</v>
@@ -16105,7 +16105,7 @@
         <v>57</v>
       </c>
       <c r="K382" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L382" t="s">
         <v>28</v>
@@ -16142,7 +16142,7 @@
       <c r="I383" s="10"/>
       <c r="J383" s="10"/>
       <c r="K383" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L383" s="2" t="s">
         <v>24</v>
@@ -16185,7 +16185,7 @@
       <c r="I384" s="10"/>
       <c r="J384" s="10"/>
       <c r="K384" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L384" s="2" t="s">
         <v>25</v>
@@ -16226,13 +16226,13 @@
         <v>29</v>
       </c>
       <c r="I385" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J385" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K385" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L385" t="s">
         <v>26</v>
@@ -16271,13 +16271,13 @@
         <v>29</v>
       </c>
       <c r="I386" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J386" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K386" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L386" t="s">
         <v>27</v>
@@ -16316,7 +16316,7 @@
         <v>29</v>
       </c>
       <c r="K387" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L387" t="s">
         <v>28</v>
@@ -16353,7 +16353,7 @@
       <c r="I388" s="10"/>
       <c r="J388" s="10"/>
       <c r="K388" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L388" s="2" t="s">
         <v>24</v>
@@ -16394,7 +16394,7 @@
       <c r="I389" s="10"/>
       <c r="J389" s="10"/>
       <c r="K389" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L389" s="2" t="s">
         <v>25</v>
@@ -16433,13 +16433,13 @@
         <v>57</v>
       </c>
       <c r="I390" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J390" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K390" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L390" t="s">
         <v>26</v>
@@ -16476,7 +16476,7 @@
         <v>57</v>
       </c>
       <c r="K391" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L391" t="s">
         <v>27</v>
@@ -16511,7 +16511,7 @@
         <v>57</v>
       </c>
       <c r="K392" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L392" t="s">
         <v>28</v>
@@ -16548,7 +16548,7 @@
       <c r="I393" s="10"/>
       <c r="J393" s="10"/>
       <c r="K393" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L393" s="2" t="s">
         <v>24</v>
@@ -16591,7 +16591,7 @@
       <c r="I394" s="10"/>
       <c r="J394" s="10"/>
       <c r="K394" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L394" s="2" t="s">
         <v>25</v>
@@ -16632,13 +16632,13 @@
         <v>29</v>
       </c>
       <c r="I395" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J395" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K395" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L395" t="s">
         <v>26</v>
@@ -16677,13 +16677,13 @@
         <v>29</v>
       </c>
       <c r="I396" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J396" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K396" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L396" t="s">
         <v>27</v>
@@ -16722,7 +16722,7 @@
         <v>29</v>
       </c>
       <c r="K397" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L397" t="s">
         <v>28</v>
@@ -16759,7 +16759,7 @@
       <c r="I398" s="10"/>
       <c r="J398" s="10"/>
       <c r="K398" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L398" s="2" t="s">
         <v>24</v>
@@ -16800,7 +16800,7 @@
       <c r="I399" s="10"/>
       <c r="J399" s="10"/>
       <c r="K399" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L399" s="2" t="s">
         <v>25</v>
@@ -16839,13 +16839,13 @@
         <v>57</v>
       </c>
       <c r="I400" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J400" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K400" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L400" t="s">
         <v>26</v>
@@ -16882,7 +16882,7 @@
         <v>57</v>
       </c>
       <c r="K401" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L401" t="s">
         <v>27</v>
@@ -16917,7 +16917,7 @@
         <v>57</v>
       </c>
       <c r="K402" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L402" t="s">
         <v>28</v>
@@ -16954,7 +16954,7 @@
       <c r="I403" s="10"/>
       <c r="J403" s="10"/>
       <c r="K403" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L403" s="2" t="s">
         <v>24</v>
@@ -16995,7 +16995,7 @@
       <c r="I404" s="10"/>
       <c r="J404" s="10"/>
       <c r="K404" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L404" s="2" t="s">
         <v>25</v>
@@ -17034,13 +17034,13 @@
         <v>29</v>
       </c>
       <c r="I405" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J405" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K405" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L405" t="s">
         <v>26</v>
@@ -17077,13 +17077,13 @@
         <v>29</v>
       </c>
       <c r="I406" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J406" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K406" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L406" t="s">
         <v>27</v>
@@ -17120,7 +17120,7 @@
         <v>29</v>
       </c>
       <c r="K407" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L407" t="s">
         <v>28</v>
@@ -17237,10 +17237,10 @@
         <v>57</v>
       </c>
       <c r="I410" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J410" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K410" t="s">
         <v>35</v>
@@ -17432,10 +17432,10 @@
         <v>29</v>
       </c>
       <c r="I415" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J415" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K415" t="s">
         <v>35</v>
@@ -17475,10 +17475,10 @@
         <v>29</v>
       </c>
       <c r="I416" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J416" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K416" t="s">
         <v>35</v>
@@ -17550,7 +17550,7 @@
         <v>21</v>
       </c>
       <c r="H418" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I418" s="2"/>
       <c r="J418" s="2"/>
@@ -17591,7 +17591,7 @@
         <v>21</v>
       </c>
       <c r="H419" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I419" s="2"/>
       <c r="J419" s="2"/>
@@ -17632,13 +17632,13 @@
         <v>21</v>
       </c>
       <c r="H420" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I420" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J420" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K420" t="s">
         <v>37</v>
@@ -17675,7 +17675,7 @@
         <v>21</v>
       </c>
       <c r="H421" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="K421" t="s">
         <v>37</v>
@@ -17710,7 +17710,7 @@
         <v>21</v>
       </c>
       <c r="H422" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="K422" t="s">
         <v>37</v>
@@ -17745,7 +17745,7 @@
         <v>21</v>
       </c>
       <c r="H423" s="2" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I423" s="10"/>
       <c r="J423" s="10"/>
@@ -17786,7 +17786,7 @@
         <v>21</v>
       </c>
       <c r="H424" s="2" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I424" s="10"/>
       <c r="J424" s="10"/>
@@ -17827,13 +17827,13 @@
         <v>21</v>
       </c>
       <c r="H425" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I425" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J425" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K425" t="s">
         <v>37</v>
@@ -17870,7 +17870,7 @@
         <v>21</v>
       </c>
       <c r="H426" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="K426" t="s">
         <v>37</v>
@@ -17905,7 +17905,7 @@
         <v>21</v>
       </c>
       <c r="H427" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="K427" t="s">
         <v>37</v>
@@ -18025,10 +18025,10 @@
         <v>57</v>
       </c>
       <c r="I430" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J430" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K430" t="s">
         <v>37</v>
@@ -18220,10 +18220,10 @@
         <v>38</v>
       </c>
       <c r="I435" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J435" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K435" t="s">
         <v>37</v>
@@ -18415,10 +18415,10 @@
         <v>39</v>
       </c>
       <c r="I440" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J440" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K440" t="s">
         <v>37</v>
@@ -18614,10 +18614,10 @@
         <v>40</v>
       </c>
       <c r="I445" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J445" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K445" t="s">
         <v>37</v>
@@ -18726,7 +18726,7 @@
         <v>21</v>
       </c>
       <c r="H448" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I448" s="10"/>
       <c r="J448" s="10"/>
@@ -18767,7 +18767,7 @@
         <v>21</v>
       </c>
       <c r="H449" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I449" s="10"/>
       <c r="J449" s="10"/>
@@ -18808,13 +18808,13 @@
         <v>21</v>
       </c>
       <c r="H450" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I450" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J450" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K450" t="s">
         <v>37</v>
@@ -18851,7 +18851,7 @@
         <v>21</v>
       </c>
       <c r="H451" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K451" t="s">
         <v>37</v>
@@ -18886,7 +18886,7 @@
         <v>21</v>
       </c>
       <c r="H452" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K452" t="s">
         <v>37</v>
@@ -19010,10 +19010,10 @@
         <v>41</v>
       </c>
       <c r="I455" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J455" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K455" t="s">
         <v>37</v>
@@ -19211,10 +19211,10 @@
         <v>29</v>
       </c>
       <c r="I460" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J460" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K460" t="s">
         <v>37</v>
@@ -19256,10 +19256,10 @@
         <v>29</v>
       </c>
       <c r="I461" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J461" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K461" t="s">
         <v>37</v>
@@ -19333,12 +19333,12 @@
         <v>21</v>
       </c>
       <c r="H463" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I463" s="2"/>
       <c r="J463" s="2"/>
       <c r="K463" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L463" s="2" t="s">
         <v>24</v>
@@ -19376,12 +19376,12 @@
         <v>21</v>
       </c>
       <c r="H464" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I464" s="2"/>
       <c r="J464" s="2"/>
       <c r="K464" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L464" s="2" t="s">
         <v>25</v>
@@ -19419,16 +19419,16 @@
         <v>21</v>
       </c>
       <c r="H465" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I465" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J465" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K465" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L465" t="s">
         <v>26</v>
@@ -19464,10 +19464,10 @@
         <v>21</v>
       </c>
       <c r="H466" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K466" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L466" t="s">
         <v>27</v>
@@ -19499,10 +19499,10 @@
         <v>21</v>
       </c>
       <c r="H467" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K467" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L467" t="s">
         <v>28</v>
@@ -19623,10 +19623,10 @@
         <v>43</v>
       </c>
       <c r="I470" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J470" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K470" t="s">
         <v>44</v>
@@ -19668,10 +19668,10 @@
         <v>43</v>
       </c>
       <c r="I471" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J471" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K471" t="s">
         <v>44</v>
@@ -19834,10 +19834,10 @@
         <v>39</v>
       </c>
       <c r="I475" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J475" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K475" t="s">
         <v>44</v>
@@ -19879,10 +19879,10 @@
         <v>39</v>
       </c>
       <c r="I476" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J476" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K476" t="s">
         <v>44</v>
@@ -20041,10 +20041,10 @@
         <v>40</v>
       </c>
       <c r="I480" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J480" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K480" t="s">
         <v>44</v>
@@ -20236,10 +20236,10 @@
         <v>29</v>
       </c>
       <c r="I485" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J485" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K485" t="s">
         <v>44</v>
@@ -20346,7 +20346,7 @@
         <v>21</v>
       </c>
       <c r="H488" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I488" s="10"/>
       <c r="J488" s="10"/>
@@ -20387,7 +20387,7 @@
         <v>21</v>
       </c>
       <c r="H489" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I489" s="10"/>
       <c r="J489" s="10"/>
@@ -20428,13 +20428,13 @@
         <v>21</v>
       </c>
       <c r="H490" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I490" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J490" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K490" t="s">
         <v>45</v>
@@ -20471,7 +20471,7 @@
         <v>21</v>
       </c>
       <c r="H491" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="K491" t="s">
         <v>45</v>
@@ -20506,7 +20506,7 @@
         <v>21</v>
       </c>
       <c r="H492" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="K492" t="s">
         <v>45</v>
@@ -20626,10 +20626,10 @@
         <v>36</v>
       </c>
       <c r="I495" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J495" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K495" t="s">
         <v>45</v>
@@ -20821,10 +20821,10 @@
         <v>43</v>
       </c>
       <c r="I500" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J500" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K500" t="s">
         <v>45</v>
@@ -21016,10 +21016,10 @@
         <v>39</v>
       </c>
       <c r="I505" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J505" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K505" t="s">
         <v>45</v>
@@ -21211,10 +21211,10 @@
         <v>40</v>
       </c>
       <c r="I510" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J510" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K510" t="s">
         <v>45</v>
@@ -21410,10 +21410,10 @@
         <v>29</v>
       </c>
       <c r="I515" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J515" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K515" t="s">
         <v>45</v>
@@ -21455,10 +21455,10 @@
         <v>29</v>
       </c>
       <c r="I516" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J516" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K516" t="s">
         <v>45</v>
@@ -21537,7 +21537,7 @@
       <c r="I518" s="10"/>
       <c r="J518" s="10"/>
       <c r="K518" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L518" s="2" t="s">
         <v>24</v>
@@ -21578,7 +21578,7 @@
       <c r="I519" s="10"/>
       <c r="J519" s="10"/>
       <c r="K519" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L519" s="2" t="s">
         <v>25</v>
@@ -21617,13 +21617,13 @@
         <v>29</v>
       </c>
       <c r="I520" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J520" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K520" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L520" t="s">
         <v>26</v>
@@ -21660,7 +21660,7 @@
         <v>29</v>
       </c>
       <c r="K521" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L521" t="s">
         <v>27</v>
@@ -21695,7 +21695,7 @@
         <v>29</v>
       </c>
       <c r="K522" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L522" t="s">
         <v>28</v>
@@ -21732,7 +21732,7 @@
       <c r="I523" s="10"/>
       <c r="J523" s="10"/>
       <c r="K523" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L523" s="2" t="s">
         <v>24</v>
@@ -21773,7 +21773,7 @@
       <c r="I524" s="10"/>
       <c r="J524" s="10"/>
       <c r="K524" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L524" s="2" t="s">
         <v>25</v>
@@ -21812,13 +21812,13 @@
         <v>36</v>
       </c>
       <c r="I525" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J525" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K525" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L525" t="s">
         <v>26</v>
@@ -21855,7 +21855,7 @@
         <v>36</v>
       </c>
       <c r="K526" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L526" t="s">
         <v>27</v>
@@ -21890,7 +21890,7 @@
         <v>36</v>
       </c>
       <c r="K527" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L527" t="s">
         <v>28</v>
@@ -21927,7 +21927,7 @@
       <c r="I528" s="10"/>
       <c r="J528" s="10"/>
       <c r="K528" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L528" s="2" t="s">
         <v>24</v>
@@ -21968,7 +21968,7 @@
       <c r="I529" s="10"/>
       <c r="J529" s="10"/>
       <c r="K529" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L529" s="2" t="s">
         <v>25</v>
@@ -22007,13 +22007,13 @@
         <v>38</v>
       </c>
       <c r="I530" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J530" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K530" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L530" t="s">
         <v>26</v>
@@ -22050,13 +22050,13 @@
         <v>38</v>
       </c>
       <c r="I531" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J531" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K531" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L531" t="s">
         <v>27</v>
@@ -22093,7 +22093,7 @@
         <v>38</v>
       </c>
       <c r="K532" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L532" t="s">
         <v>28</v>
@@ -22130,7 +22130,7 @@
       <c r="I533" s="10"/>
       <c r="J533" s="10"/>
       <c r="K533" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L533" s="2" t="s">
         <v>24</v>
@@ -22173,7 +22173,7 @@
       <c r="I534" s="10"/>
       <c r="J534" s="10"/>
       <c r="K534" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L534" s="2" t="s">
         <v>25</v>
@@ -22214,13 +22214,13 @@
         <v>29</v>
       </c>
       <c r="I535" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J535" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K535" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L535" t="s">
         <v>26</v>
@@ -22259,7 +22259,7 @@
         <v>29</v>
       </c>
       <c r="K536" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L536" t="s">
         <v>27</v>
@@ -22294,7 +22294,7 @@
         <v>29</v>
       </c>
       <c r="K537" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L537" t="s">
         <v>28</v>
@@ -22326,7 +22326,7 @@
         <v>21</v>
       </c>
       <c r="H538" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I538" s="2"/>
       <c r="J538" s="2"/>
@@ -22367,7 +22367,7 @@
         <v>21</v>
       </c>
       <c r="H539" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I539" s="2"/>
       <c r="J539" s="2"/>
@@ -22408,13 +22408,13 @@
         <v>21</v>
       </c>
       <c r="H540" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I540" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J540" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K540" t="s">
         <v>48</v>
@@ -22451,7 +22451,7 @@
         <v>21</v>
       </c>
       <c r="H541" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="K541" t="s">
         <v>48</v>
@@ -22486,7 +22486,7 @@
         <v>21</v>
       </c>
       <c r="H542" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="K542" t="s">
         <v>48</v>
@@ -22521,7 +22521,7 @@
         <v>21</v>
       </c>
       <c r="H543" s="2" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I543" s="10"/>
       <c r="J543" s="10"/>
@@ -22562,7 +22562,7 @@
         <v>21</v>
       </c>
       <c r="H544" s="2" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I544" s="10"/>
       <c r="J544" s="10"/>
@@ -22603,13 +22603,13 @@
         <v>21</v>
       </c>
       <c r="H545" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I545" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J545" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K545" t="s">
         <v>48</v>
@@ -22646,7 +22646,7 @@
         <v>21</v>
       </c>
       <c r="H546" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="K546" t="s">
         <v>48</v>
@@ -22681,7 +22681,7 @@
         <v>21</v>
       </c>
       <c r="H547" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="K547" t="s">
         <v>48</v>
@@ -22805,10 +22805,10 @@
         <v>57</v>
       </c>
       <c r="I550" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J550" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K550" t="s">
         <v>48</v>
@@ -23002,10 +23002,10 @@
         <v>36</v>
       </c>
       <c r="I555" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J555" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K555" t="s">
         <v>48</v>
@@ -23045,10 +23045,10 @@
         <v>36</v>
       </c>
       <c r="I556" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J556" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K556" t="s">
         <v>48</v>
@@ -23205,10 +23205,10 @@
         <v>43</v>
       </c>
       <c r="I560" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J560" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K560" t="s">
         <v>48</v>
@@ -23400,10 +23400,10 @@
         <v>38</v>
       </c>
       <c r="I565" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J565" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K565" t="s">
         <v>48</v>
@@ -23595,10 +23595,10 @@
         <v>39</v>
       </c>
       <c r="I570" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J570" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K570" t="s">
         <v>48</v>
@@ -23790,10 +23790,10 @@
         <v>40</v>
       </c>
       <c r="I575" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J575" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K575" t="s">
         <v>48</v>
@@ -23989,10 +23989,10 @@
         <v>41</v>
       </c>
       <c r="I580" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J580" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K580" t="s">
         <v>48</v>
@@ -24034,10 +24034,10 @@
         <v>41</v>
       </c>
       <c r="I581" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J581" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K581" t="s">
         <v>48</v>
@@ -24200,10 +24200,10 @@
         <v>49</v>
       </c>
       <c r="I585" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J585" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K585" t="s">
         <v>48</v>
@@ -24401,10 +24401,10 @@
         <v>29</v>
       </c>
       <c r="I590" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J590" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K590" t="s">
         <v>48</v>
@@ -24446,10 +24446,10 @@
         <v>29</v>
       </c>
       <c r="I591" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J591" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K591" t="s">
         <v>48</v>
@@ -24491,10 +24491,10 @@
         <v>29</v>
       </c>
       <c r="I592" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J592" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K592" t="s">
         <v>48</v>
@@ -24533,7 +24533,7 @@
         <v>21</v>
       </c>
       <c r="H593" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I593" s="10"/>
       <c r="J593" s="10"/>
@@ -24574,7 +24574,7 @@
         <v>21</v>
       </c>
       <c r="H594" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I594" s="10"/>
       <c r="J594" s="10"/>
@@ -24615,13 +24615,13 @@
         <v>21</v>
       </c>
       <c r="H595" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I595" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J595" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K595" t="s">
         <v>50</v>
@@ -24658,7 +24658,7 @@
         <v>21</v>
       </c>
       <c r="H596" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="K596" t="s">
         <v>50</v>
@@ -24693,7 +24693,7 @@
         <v>21</v>
       </c>
       <c r="H597" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="K597" t="s">
         <v>50</v>
@@ -24728,7 +24728,7 @@
         <v>21</v>
       </c>
       <c r="H598" s="2" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I598" s="10"/>
       <c r="J598" s="10"/>
@@ -24769,7 +24769,7 @@
         <v>21</v>
       </c>
       <c r="H599" s="2" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I599" s="10"/>
       <c r="J599" s="10"/>
@@ -24810,13 +24810,13 @@
         <v>21</v>
       </c>
       <c r="H600" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I600" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J600" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K600" t="s">
         <v>50</v>
@@ -24853,7 +24853,7 @@
         <v>21</v>
       </c>
       <c r="H601" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="K601" t="s">
         <v>50</v>
@@ -24888,7 +24888,7 @@
         <v>21</v>
       </c>
       <c r="H602" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="K602" t="s">
         <v>50</v>
@@ -25012,10 +25012,10 @@
         <v>57</v>
       </c>
       <c r="I605" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J605" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K605" t="s">
         <v>50</v>
@@ -25209,10 +25209,10 @@
         <v>36</v>
       </c>
       <c r="I610" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J610" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K610" t="s">
         <v>50</v>
@@ -25404,10 +25404,10 @@
         <v>43</v>
       </c>
       <c r="I615" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J615" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K615" t="s">
         <v>50</v>
@@ -25599,10 +25599,10 @@
         <v>38</v>
       </c>
       <c r="I620" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J620" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K620" t="s">
         <v>50</v>
@@ -25794,10 +25794,10 @@
         <v>39</v>
       </c>
       <c r="I625" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J625" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K625" t="s">
         <v>50</v>
@@ -25989,10 +25989,10 @@
         <v>40</v>
       </c>
       <c r="I630" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J630" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K630" t="s">
         <v>50</v>
@@ -26188,10 +26188,10 @@
         <v>29</v>
       </c>
       <c r="I635" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J635" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K635" t="s">
         <v>50</v>
@@ -26233,10 +26233,10 @@
         <v>29</v>
       </c>
       <c r="I636" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J636" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K636" t="s">
         <v>50</v>
@@ -26310,7 +26310,7 @@
         <v>21</v>
       </c>
       <c r="H638" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I638" s="10"/>
       <c r="J638" s="10"/>
@@ -26351,7 +26351,7 @@
         <v>21</v>
       </c>
       <c r="H639" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I639" s="10"/>
       <c r="J639" s="10"/>
@@ -26392,13 +26392,13 @@
         <v>21</v>
       </c>
       <c r="H640" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I640" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J640" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K640" t="s">
         <v>51</v>
@@ -26435,7 +26435,7 @@
         <v>21</v>
       </c>
       <c r="H641" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="K641" t="s">
         <v>51</v>
@@ -26470,7 +26470,7 @@
         <v>21</v>
       </c>
       <c r="H642" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="K642" t="s">
         <v>51</v>
@@ -26505,7 +26505,7 @@
         <v>21</v>
       </c>
       <c r="H643" s="2" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I643" s="10"/>
       <c r="J643" s="10"/>
@@ -26546,7 +26546,7 @@
         <v>21</v>
       </c>
       <c r="H644" s="2" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I644" s="10"/>
       <c r="J644" s="10"/>
@@ -26587,13 +26587,13 @@
         <v>21</v>
       </c>
       <c r="H645" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="I645" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J645" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K645" t="s">
         <v>51</v>
@@ -26630,7 +26630,7 @@
         <v>21</v>
       </c>
       <c r="H646" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="K646" t="s">
         <v>51</v>
@@ -26665,7 +26665,7 @@
         <v>21</v>
       </c>
       <c r="H647" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="K647" t="s">
         <v>51</v>
@@ -26785,10 +26785,10 @@
         <v>36</v>
       </c>
       <c r="I650" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J650" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K650" t="s">
         <v>51</v>
@@ -26980,10 +26980,10 @@
         <v>43</v>
       </c>
       <c r="I655" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J655" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K655" t="s">
         <v>51</v>
@@ -27023,10 +27023,10 @@
         <v>43</v>
       </c>
       <c r="I656" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J656" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K656" t="s">
         <v>51</v>
@@ -27183,10 +27183,10 @@
         <v>38</v>
       </c>
       <c r="I660" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J660" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K660" t="s">
         <v>51</v>
@@ -27382,10 +27382,10 @@
         <v>39</v>
       </c>
       <c r="I665" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J665" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K665" t="s">
         <v>51</v>
@@ -27579,10 +27579,10 @@
         <v>40</v>
       </c>
       <c r="I670" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J670" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K670" t="s">
         <v>51</v>
@@ -27774,10 +27774,10 @@
         <v>29</v>
       </c>
       <c r="I675" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J675" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K675" t="s">
         <v>51</v>
@@ -27817,10 +27817,10 @@
         <v>29</v>
       </c>
       <c r="I676" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J676" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K676" t="s">
         <v>51</v>
@@ -27977,10 +27977,10 @@
         <v>39</v>
       </c>
       <c r="I680" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J680" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K680" t="s">
         <v>52</v>
@@ -28172,10 +28172,10 @@
         <v>40</v>
       </c>
       <c r="I685" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J685" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K685" t="s">
         <v>52</v>
@@ -28287,7 +28287,7 @@
       <c r="I688" s="10"/>
       <c r="J688" s="10"/>
       <c r="K688" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L688" s="2" t="s">
         <v>24</v>
@@ -28328,7 +28328,7 @@
       <c r="I689" s="10"/>
       <c r="J689" s="10"/>
       <c r="K689" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L689" s="2" t="s">
         <v>25</v>
@@ -28367,13 +28367,13 @@
         <v>36</v>
       </c>
       <c r="I690" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J690" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K690" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L690" t="s">
         <v>26</v>
@@ -28410,7 +28410,7 @@
         <v>36</v>
       </c>
       <c r="K691" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L691" t="s">
         <v>27</v>
@@ -28445,7 +28445,7 @@
         <v>36</v>
       </c>
       <c r="K692" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L692" t="s">
         <v>28</v>
@@ -28482,7 +28482,7 @@
       <c r="I693" s="10"/>
       <c r="J693" s="10"/>
       <c r="K693" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L693" s="2" t="s">
         <v>24</v>
@@ -28525,7 +28525,7 @@
       <c r="I694" s="10"/>
       <c r="J694" s="10"/>
       <c r="K694" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L694" s="2" t="s">
         <v>25</v>
@@ -28566,13 +28566,13 @@
         <v>38</v>
       </c>
       <c r="I695" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J695" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K695" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L695" t="s">
         <v>26</v>
@@ -28611,7 +28611,7 @@
         <v>38</v>
       </c>
       <c r="K696" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L696" t="s">
         <v>27</v>
@@ -28646,7 +28646,7 @@
         <v>38</v>
       </c>
       <c r="K697" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L697" t="s">
         <v>28</v>
@@ -28683,7 +28683,7 @@
       <c r="I698" s="2"/>
       <c r="J698" s="2"/>
       <c r="K698" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L698" s="2" t="s">
         <v>24</v>
@@ -28724,7 +28724,7 @@
       <c r="I699" s="2"/>
       <c r="J699" s="2"/>
       <c r="K699" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L699" s="2" t="s">
         <v>25</v>
@@ -28763,13 +28763,13 @@
         <v>39</v>
       </c>
       <c r="I700" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J700" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K700" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L700" t="s">
         <v>26</v>
@@ -28806,7 +28806,7 @@
         <v>39</v>
       </c>
       <c r="K701" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L701" t="s">
         <v>27</v>
@@ -28841,7 +28841,7 @@
         <v>39</v>
       </c>
       <c r="K702" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L702" t="s">
         <v>28</v>
@@ -28878,7 +28878,7 @@
       <c r="I703" s="10"/>
       <c r="J703" s="10"/>
       <c r="K703" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L703" s="2" t="s">
         <v>24</v>
@@ -28921,7 +28921,7 @@
       <c r="I704" s="10"/>
       <c r="J704" s="10"/>
       <c r="K704" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L704" s="2" t="s">
         <v>25</v>
@@ -28962,13 +28962,13 @@
         <v>29</v>
       </c>
       <c r="I705" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J705" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K705" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L705" t="s">
         <v>26</v>
@@ -29007,13 +29007,13 @@
         <v>29</v>
       </c>
       <c r="I706" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J706" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K706" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L706" t="s">
         <v>27</v>
@@ -29052,7 +29052,7 @@
         <v>29</v>
       </c>
       <c r="K707" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L707" t="s">
         <v>28</v>
@@ -29087,10 +29087,10 @@
         <v>29</v>
       </c>
       <c r="K708" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L708" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M708" s="4"/>
       <c r="N708" s="8"/>

--- a/inst/extdata/GH-ZA-Allocation-sample-2019.xlsx
+++ b/inst/extdata/GH-ZA-Allocation-sample-2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/IEATools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D66021-682A-7942-B350-A8E4D6926174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18EC6C0-E92F-B945-992F-A0C405B3B8F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="31380" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,6 @@
     <sheet name="FU Allocations" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -828,8 +820,8 @@
   <dimension ref="A1:O754"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I165" sqref="I165"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I140" sqref="I140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4858,7 +4850,7 @@
         <v>41</v>
       </c>
       <c r="I99" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="J99" t="s">
         <v>92</v>
@@ -5912,7 +5904,7 @@
         <v>41</v>
       </c>
       <c r="I125" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="J125" t="s">
         <v>92</v>
@@ -6519,7 +6511,7 @@
         <v>41</v>
       </c>
       <c r="I140" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="J140" t="s">
         <v>92</v>
